--- a/Analytics.xlsx
+++ b/Analytics.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NurazwanHasan/Desktop/Projects/SBPA/WorldBookDay2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81FCB5C-934A-AF4D-9742-BA0E52AEDB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C7ECFB-9AAE-BB42-B7FA-3F40758EEFD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily visitor" sheetId="3" r:id="rId1"/>
-    <sheet name="Event clicks" sheetId="10" r:id="rId2"/>
-    <sheet name="Traffic Source" sheetId="9" r:id="rId3"/>
-    <sheet name="User Location" sheetId="8" r:id="rId4"/>
-    <sheet name="User Language" sheetId="2" r:id="rId5"/>
-    <sheet name="User Age range" sheetId="4" r:id="rId6"/>
-    <sheet name="User Gender" sheetId="5" r:id="rId7"/>
-    <sheet name="User Affinity Interest" sheetId="6" r:id="rId8"/>
+    <sheet name="Traffic Source" sheetId="9" r:id="rId2"/>
+    <sheet name="Sessions by page" sheetId="11" r:id="rId3"/>
+    <sheet name="Event clicks" sheetId="10" r:id="rId4"/>
+    <sheet name="User Location" sheetId="8" r:id="rId5"/>
+    <sheet name="User Language" sheetId="2" r:id="rId6"/>
+    <sheet name="User Age range" sheetId="4" r:id="rId7"/>
+    <sheet name="User Gender" sheetId="5" r:id="rId8"/>
+    <sheet name="User Affinity Interest" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Event clicks'!$A$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Event clicks'!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Language</t>
   </si>
@@ -350,6 +351,12 @@
   </si>
   <si>
     <t>CommissionAndAcquisitions</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Events</t>
   </si>
 </sst>
 </file>
@@ -416,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,6 +437,10 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2192,7 +2203,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,10 +2302,295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B79167-4936-2C46-9760-A3DB7F9F220A}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="11">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11">
+        <v>324</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11">
+        <v>294</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="11">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="11">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779610BE-FD1C-FE45-8272-35E36E0B6462}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>44309</v>
+      </c>
+      <c r="B2" s="11">
+        <v>222</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>44310</v>
+      </c>
+      <c r="B3" s="11">
+        <v>120</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>44311</v>
+      </c>
+      <c r="B4" s="11">
+        <v>93</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>44312</v>
+      </c>
+      <c r="B5" s="11">
+        <v>230</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>44313</v>
+      </c>
+      <c r="B6" s="11">
+        <v>129</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>44314</v>
+      </c>
+      <c r="B7" s="11">
+        <v>115</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>44315</v>
+      </c>
+      <c r="B8" s="11">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>44316</v>
+      </c>
+      <c r="B9" s="11">
+        <v>121</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="11">
+        <v>216</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>44318</v>
+      </c>
+      <c r="B11" s="11">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4EB31F-8F7E-2A49-B6C8-499EE4EFA29C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2630,109 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B79167-4936-2C46-9760-A3DB7F9F220A}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="11">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="11">
-        <v>324</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="11">
-        <v>294</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="11">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="11">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565CEAFD-B1D0-B545-9A87-096D53023A05}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -3191,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3459,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A5A92-CE6E-8543-B356-6C7524A8DA69}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3530,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4933D8DB-2DCA-674E-BDE4-042F0499F3B2}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3569,7 +3763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E265FF1-8349-BF4C-BEA1-064E1FD6D6FB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
